--- a/examples/oucru/oucru-01nva/resources/outputs/templates/ccfgs_01nva_data_fixed.xlsx
+++ b/examples/oucru/oucru-01nva/resources/outputs/templates/ccfgs_01nva_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-01nva\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54F8DD2-B2C3-450E-B0AD-503978EA0F24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCE0FBA-594D-48E4-95F9-17887749DCFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM" sheetId="1" r:id="rId1"/>

--- a/examples/oucru/oucru-01nva/resources/outputs/templates/ccfgs_01nva_data_fixed.xlsx
+++ b/examples/oucru/oucru-01nva/resources/outputs/templates/ccfgs_01nva_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-01nva\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCE0FBA-594D-48E4-95F9-17887749DCFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2781767-BCAC-44F7-8B35-30DA098618C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26895" yWindow="945" windowWidth="23505" windowHeight="16470" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,23 @@
     <sheet name="DIS" sheetId="21" r:id="rId21"/>
     <sheet name="Category" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="589">
   <si>
     <t>from_name</t>
   </si>
@@ -325,15 +336,6 @@
     <t>{3: 'V_0'}</t>
   </si>
   <si>
-    <t>{'Y': 'V_0', 'N': 'V_1'}</t>
-  </si>
-  <si>
-    <t>{'N': 'V_0'}</t>
-  </si>
-  <si>
-    <t>{'N': 'V_0', 'Y': 'V_2'}</t>
-  </si>
-  <si>
     <t>{'Malaria treated 10 years ago': 'V_1', 'HUT THUOC THUONG XUYEN': 'V_2', 'Rối loạn lipid máu, viẻm khớp': 'V_3', 'Kidney stone (?) - thuoc nam': 'V_4'}</t>
   </si>
   <si>
@@ -463,9 +465,6 @@
     <t>fevertime</t>
   </si>
   <si>
-    <t>feverday</t>
-  </si>
-  <si>
     <t>headache</t>
   </si>
   <si>
@@ -751,12 +750,6 @@
     <t>gcs</t>
   </si>
   <si>
-    <t>othskin</t>
-  </si>
-  <si>
-    <t>othskinspec</t>
-  </si>
-  <si>
     <t>sourceinfectna</t>
   </si>
   <si>
@@ -793,9 +786,6 @@
     <t>{'Mo mat khi goi. Tra loi cham': 'V_1', 'BN lo mo, tra loi lan lon, khomg xac dinh duoc khong gian thoi gian': 'V_2', 'agitated &gt; Midazolam, Ventilated': 'V_3'}</t>
   </si>
   <si>
-    <t>{'Red skin in back and neck': 'V_0', 'Ban hoai tu 2 ban chan, ban xuat huyet 2 tay': 'V_2', 'Loét da rải rác ngón 1, 2x3 cm má ngoài chân (T), rỉ ít mủ, viêm đỏ; hâm vùng cùng cụt': 'V_3'}</t>
-  </si>
-  <si>
     <t>VITAL_VITAL_SEQ</t>
   </si>
   <si>
@@ -982,9 +972,6 @@
     <t>consstime</t>
   </si>
   <si>
-    <t>consdesc</t>
-  </si>
-  <si>
     <t>localsign</t>
   </si>
   <si>
@@ -1000,9 +987,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>{'te yeu 2 chan': 'V_1'}</t>
-  </si>
-  <si>
     <t>CLI_RESHOCK_SEQ</t>
   </si>
   <si>
@@ -1552,9 +1536,6 @@
     <t>{15: 15, 13: 13, 8: 8}</t>
   </si>
   <si>
-    <t>Glasgow Comma Score</t>
-  </si>
-  <si>
     <t>Is the entered time the exact time the events happened? Or might there be delays between samples and imputation?</t>
   </si>
   <si>
@@ -1792,9 +1773,6 @@
     <t>event_onset</t>
   </si>
   <si>
-    <t>We have it in DM?</t>
-  </si>
-  <si>
     <t>Antibiotic NA?</t>
   </si>
   <si>
@@ -1802,6 +1780,45 @@
   </si>
   <si>
     <t>event_laboratory</t>
+  </si>
+  <si>
+    <t>cns_abnormal_description</t>
+  </si>
+  <si>
+    <t>skin_other</t>
+  </si>
+  <si>
+    <t>skin_other_description</t>
+  </si>
+  <si>
+    <t>conscious_description</t>
+  </si>
+  <si>
+    <t>ventilation</t>
+  </si>
+  <si>
+    <t>{3: 3}</t>
+  </si>
+  <si>
+    <t>{'01Nva': '01Nva'}</t>
+  </si>
+  <si>
+    <t>day_from_illness</t>
+  </si>
+  <si>
+    <t>ADMDTC_DM</t>
+  </si>
+  <si>
+    <t>ADMTIME_DM</t>
+  </si>
+  <si>
+    <t>-FEVERDAY</t>
+  </si>
+  <si>
+    <t>We have it in DM? Many Incomplete</t>
+  </si>
+  <si>
+    <t>empty atm</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1919,6 +1936,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2260,10 +2278,10 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9:E10"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2289,7 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -2313,7 +2331,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2338,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -2358,7 +2376,7 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>582</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -2375,7 +2393,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>581</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2420,7 +2438,7 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2431,16 +2449,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2457,7 +2475,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2477,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2491,7 +2509,7 @@
         <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2508,7 +2526,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2525,10 +2543,10 @@
         <v>85</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E14" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
@@ -2548,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2570,16 +2588,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E17" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2590,16 +2608,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E18" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2616,10 +2634,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>
@@ -2630,16 +2648,16 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F20" s="4" t="b">
         <v>0</v>
@@ -2656,10 +2674,10 @@
         <v>85</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F21" s="4" t="b">
         <v>0</v>
@@ -2676,10 +2694,10 @@
         <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
@@ -2696,16 +2714,16 @@
         <v>85</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2713,16 +2731,16 @@
         <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F24" s="4" t="b">
         <v>0</v>
@@ -2739,10 +2757,10 @@
         <v>85</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F25" s="6" t="b">
         <v>0</v>
@@ -2759,16 +2777,16 @@
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E26" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2776,16 +2794,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C27" t="s">
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2796,22 +2814,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E28" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F28" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2819,16 +2837,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C29" t="s">
         <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E29" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2845,10 +2863,10 @@
         <v>85</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E30" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F30" s="4" t="b">
         <v>0</v>
@@ -2865,16 +2883,16 @@
         <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E31" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F31" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2888,10 +2906,10 @@
         <v>85</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E32" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F32" s="4" t="b">
         <v>0</v>
@@ -2908,10 +2926,10 @@
         <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E33" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F33" s="4" t="b">
         <v>0</v>
@@ -2928,10 +2946,10 @@
         <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E34" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F34" s="4" t="b">
         <v>0</v>
@@ -2948,16 +2966,16 @@
         <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E35" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F35" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2971,16 +2989,16 @@
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E36" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2994,10 +3012,10 @@
         <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E37" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -3028,7 +3046,7 @@
         <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -3039,19 +3057,19 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>96</v>
+        <v>423</v>
       </c>
       <c r="F40" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3059,19 +3077,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>95</v>
+        <v>423</v>
       </c>
       <c r="F41" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3085,13 +3103,13 @@
         <v>85</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>96</v>
+        <v>423</v>
       </c>
       <c r="F42" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3108,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3122,7 +3140,7 @@
         <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3144,10 +3162,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
@@ -3159,7 +3177,7 @@
         <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3174,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3264,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -3257,10 +3275,10 @@
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>87</v>
@@ -3271,10 +3289,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -3285,10 +3303,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -3299,142 +3317,142 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3448,7 +3466,7 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3470,10 +3488,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C16" t="s">
         <v>89</v>
@@ -3482,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I16" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3525,7 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -3572,7 +3590,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -3645,16 +3663,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3662,10 +3680,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
@@ -3674,18 +3692,18 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3693,16 +3711,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3710,16 +3728,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -3727,16 +3745,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -3744,10 +3762,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -3767,7 +3785,7 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -3846,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3871,7 +3889,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -3882,10 +3900,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -3896,16 +3914,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3913,10 +3931,10 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>89</v>
@@ -3927,10 +3945,10 @@
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>90</v>
@@ -3941,10 +3959,10 @@
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>89</v>
@@ -3955,10 +3973,10 @@
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>90</v>
@@ -3969,25 +3987,25 @@
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4001,7 +4019,7 @@
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4023,10 +4041,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
@@ -4035,21 +4053,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H13" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I13" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -4058,13 +4076,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H14" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="I14" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4114,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4139,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -4150,16 +4168,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4167,10 +4185,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -4184,10 +4202,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -4210,7 +4228,7 @@
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4230,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4292,7 +4310,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4317,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -4328,16 +4346,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4345,10 +4363,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -4362,10 +4380,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -4388,7 +4406,7 @@
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4408,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4421,7 +4439,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,7 +4489,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4496,7 +4514,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -4507,10 +4525,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -4583,27 +4601,30 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
       </c>
+      <c r="E9" t="s">
+        <v>249</v>
+      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
@@ -4614,7 +4635,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -4623,7 +4644,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4631,70 +4652,73 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
@@ -4705,10 +4729,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
         <v>90</v>
@@ -4719,139 +4743,139 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B22" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F23" s="5" t="b">
         <v>0</v>
@@ -4859,19 +4883,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -4879,19 +4903,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B25" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4899,62 +4923,62 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C27" t="s">
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4962,10 +4986,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
         <v>86</v>
@@ -4985,7 +5009,7 @@
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -5007,10 +5031,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C32" t="s">
         <v>89</v>
@@ -5019,13 +5043,13 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H32" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="I32" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5089,10 +5113,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -5123,7 +5147,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -5134,16 +5158,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5151,16 +5175,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5168,10 +5192,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -5182,10 +5206,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -5196,10 +5220,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
@@ -5210,10 +5234,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
@@ -5224,22 +5248,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5253,7 +5277,7 @@
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5275,10 +5299,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -5287,21 +5311,21 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I14" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
@@ -5310,13 +5334,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H15" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="I15" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5371,10 +5395,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -5405,7 +5429,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -5416,16 +5440,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5433,10 +5457,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -5450,10 +5474,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -5476,7 +5500,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5506,7 +5530,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M22" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,10 +5581,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -5591,7 +5615,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -5602,16 +5626,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5619,10 +5643,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -5636,10 +5660,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -5662,7 +5686,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5692,7 +5716,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5740,10 +5764,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -5774,7 +5798,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -5785,10 +5809,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -5799,10 +5823,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -5813,10 +5837,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -5827,142 +5851,142 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C12" t="s">
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5976,7 +6000,7 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5998,10 +6022,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
@@ -6010,10 +6034,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6023,10 +6047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
@@ -6037,7 +6061,7 @@
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -6080,13 +6104,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6111,7 +6135,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -6131,7 +6155,7 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>582</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6148,7 +6172,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>581</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6184,10 +6208,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -6198,10 +6222,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -6212,36 +6236,39 @@
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>583</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E11" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -6249,19 +6276,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E12" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -6269,19 +6296,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E13" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -6289,19 +6316,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E14" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -6309,19 +6336,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E15" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -6329,19 +6356,19 @@
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E16" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4" t="b">
         <v>0</v>
@@ -6349,19 +6376,19 @@
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E17" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F17" s="4" t="b">
         <v>0</v>
@@ -6369,19 +6396,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E18" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6389,19 +6416,19 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E19" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -6409,19 +6436,19 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E20" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6429,19 +6456,19 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E21" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6449,10 +6476,10 @@
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>86</v>
@@ -6463,16 +6490,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6492,21 +6519,21 @@
         <v>1</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -6514,16 +6541,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6531,16 +6558,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6548,13 +6575,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6562,30 +6589,30 @@
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>86</v>
@@ -6594,35 +6621,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>584</v>
+    <row r="31" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6630,10 +6657,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
         <v>86</v>
@@ -6644,130 +6671,130 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
         <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C37" t="s">
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>89</v>
@@ -6778,10 +6805,10 @@
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>90</v>
@@ -6792,10 +6819,10 @@
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>89</v>
@@ -6806,10 +6833,10 @@
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>90</v>
@@ -6820,30 +6847,30 @@
     </row>
     <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F44" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>87</v>
@@ -6852,41 +6879,41 @@
         <v>0</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F46" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>65</v>
@@ -6895,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -6909,7 +6936,7 @@
         <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6930,11 +6957,11 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>415</v>
-      </c>
-      <c r="B50" t="s">
-        <v>415</v>
+      <c r="A50" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="C50" t="s">
         <v>89</v>
@@ -6942,22 +6969,13 @@
       <c r="F50" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" t="s">
-        <v>416</v>
-      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>575</v>
-      </c>
-      <c r="B51" t="s">
-        <v>575</v>
+      <c r="A51" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>585</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -6965,22 +6983,13 @@
       <c r="F51" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I51" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>576</v>
-      </c>
-      <c r="B52" t="s">
-        <v>576</v>
+      <c r="A52" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="C52" t="s">
         <v>89</v>
@@ -6988,19 +6997,22 @@
       <c r="F52" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>133</v>
+      <c r="G52" t="s">
+        <v>584</v>
+      </c>
+      <c r="H52" t="s">
+        <v>585</v>
+      </c>
+      <c r="I52" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>581</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s">
-        <v>581</v>
+        <v>406</v>
       </c>
       <c r="C53" t="s">
         <v>89</v>
@@ -7008,18 +7020,85 @@
       <c r="F53" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="G53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" t="s">
+        <v>97</v>
+      </c>
       <c r="I53" t="s">
-        <v>582</v>
-      </c>
-      <c r="K53" t="s">
-        <v>101</v>
-      </c>
-      <c r="L53" t="s">
-        <v>415</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>565</v>
+      </c>
+      <c r="B54" t="s">
+        <v>565</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I54" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>566</v>
+      </c>
+      <c r="B55" t="s">
+        <v>566</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>571</v>
+      </c>
+      <c r="B56" t="s">
+        <v>571</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>572</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="L56" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7028,7 +7107,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7078,15 +7157,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -7117,7 +7196,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -7128,50 +7207,50 @@
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -7180,15 +7259,15 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -7197,61 +7276,61 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7259,82 +7338,82 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7348,7 +7427,7 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7370,10 +7449,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C18" t="s">
         <v>89</v>
@@ -7382,10 +7461,10 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H18" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -7398,13 +7477,13 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.140625" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
@@ -7448,7 +7527,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7473,7 +7552,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -7546,10 +7625,10 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>89</v>
@@ -7558,41 +7637,41 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E9" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
@@ -7603,36 +7682,36 @@
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7640,16 +7719,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7657,55 +7736,55 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" t="b">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7720,7 +7799,7 @@
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7801,10 +7880,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -7815,10 +7894,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -7829,10 +7908,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -7850,8 +7929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7859,7 +7938,7 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -7900,7 +7979,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7925,7 +8004,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -7998,10 +8077,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -8012,10 +8091,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -8026,179 +8105,179 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -8206,19 +8285,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E19" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8226,19 +8305,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E20" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -8246,19 +8325,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E21" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -8266,19 +8345,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E22" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -8286,19 +8365,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E23" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -8306,19 +8385,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E24" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -8326,19 +8405,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E25" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -8346,19 +8425,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E26" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -8366,33 +8445,36 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C27" t="s">
         <v>86</v>
       </c>
+      <c r="E27" t="s">
+        <v>424</v>
+      </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F28" s="4" t="b">
         <v>0</v>
@@ -8400,42 +8482,42 @@
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E29" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F29" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E30" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -8443,19 +8525,19 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C31" t="s">
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E31" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -8463,19 +8545,19 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C32" t="s">
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E32" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -8483,19 +8565,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C33" t="s">
         <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E33" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -8503,19 +8585,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C34" t="s">
         <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E34" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -8523,19 +8605,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E35" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -8543,19 +8625,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C36" t="s">
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E36" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -8563,36 +8645,39 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C37" t="s">
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C38" t="s">
         <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E38" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -8600,36 +8685,39 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E40" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -8637,19 +8725,19 @@
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F41" s="5" t="b">
         <v>0</v>
@@ -8657,16 +8745,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>576</v>
       </c>
       <c r="C42" t="s">
         <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -8674,159 +8765,159 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
         <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s">
         <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C47" t="s">
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s">
         <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
         <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F50" s="5" t="b">
         <v>0</v>
@@ -8843,7 +8934,7 @@
         <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -8865,10 +8956,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C53" t="s">
         <v>89</v>
@@ -8877,13 +8968,13 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I53" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -8895,8 +8986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8945,7 +9036,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8970,7 +9061,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -9043,10 +9134,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -9058,15 +9149,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
@@ -9078,15 +9169,15 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
@@ -9098,15 +9189,15 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
@@ -9118,15 +9209,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
@@ -9138,15 +9229,15 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
@@ -9158,15 +9249,15 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
@@ -9178,15 +9269,15 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -9198,44 +9289,41 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>503</v>
+      <c r="F16" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C17" t="s">
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
@@ -9246,16 +9334,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9263,16 +9351,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
@@ -9281,38 +9369,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="4" t="b">
+      <c r="F20" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>53</v>
@@ -9321,21 +9409,21 @@
         <v>0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
@@ -9346,16 +9434,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C23" t="s">
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E23" t="s">
         <v>53</v>
@@ -9366,16 +9454,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
@@ -9386,16 +9474,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -9406,16 +9494,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E26" t="s">
         <v>53</v>
@@ -9426,16 +9514,19 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>577</v>
       </c>
       <c r="C27" t="s">
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>405</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -9443,55 +9534,58 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>578</v>
       </c>
       <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
-        <v>250</v>
+      <c r="E28" t="s">
+        <v>53</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="7" t="b">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="E30" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F30" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
         <v>88</v>
@@ -9503,29 +9597,29 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" t="b">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C33" t="s">
         <v>88</v>
@@ -9537,15 +9631,15 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
@@ -9557,29 +9651,29 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>226</v>
-      </c>
-      <c r="B35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C35" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" t="b">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
         <v>88</v>
@@ -9591,29 +9685,29 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" t="b">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
@@ -9625,29 +9719,29 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" t="b">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
@@ -9659,29 +9753,29 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" t="b">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
@@ -9693,29 +9787,29 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" t="b">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
         <v>85</v>
@@ -9727,29 +9821,29 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" t="b">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
@@ -9761,20 +9855,20 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>234</v>
-      </c>
-      <c r="B47" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" t="b">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9789,7 +9883,7 @@
         <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -9809,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -9821,9 +9915,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9961,7 +10068,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -9988,10 +10095,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10008,7 +10115,7 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10039,8 +10146,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -10057,12 +10167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -10071,12 +10181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -10085,12 +10195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -10099,12 +10209,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -10113,144 +10223,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -10261,13 +10374,13 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -10281,12 +10394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C16" t="s">
         <v>89</v>
@@ -10295,10 +10408,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -10311,13 +10424,13 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
@@ -10360,7 +10473,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10385,7 +10498,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -10458,19 +10571,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E8" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -10478,10 +10591,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
@@ -10492,10 +10605,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
@@ -10506,121 +10619,139 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C15" t="s">
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C17" t="s">
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E17" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -10628,19 +10759,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -10648,16 +10779,16 @@
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="b">
         <v>0</v>
@@ -10665,10 +10796,10 @@
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>89</v>
@@ -10679,10 +10810,10 @@
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>90</v>
@@ -10693,10 +10824,10 @@
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>89</v>
@@ -10707,10 +10838,10 @@
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>90</v>
@@ -10721,16 +10852,16 @@
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F24" s="7" t="b">
         <v>0</v>
@@ -10738,10 +10869,10 @@
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>89</v>
@@ -10752,10 +10883,10 @@
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>85</v>
@@ -10766,16 +10897,16 @@
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F27" s="7" t="b">
         <v>0</v>
@@ -10783,16 +10914,16 @@
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F28" s="7" t="b">
         <v>0</v>
@@ -10800,16 +10931,16 @@
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F29" s="7" t="b">
         <v>0</v>
@@ -10817,10 +10948,10 @@
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>89</v>
@@ -10831,10 +10962,10 @@
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>85</v>
@@ -10845,16 +10976,16 @@
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F32" s="7" t="b">
         <v>0</v>
@@ -10862,10 +10993,10 @@
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>85</v>
@@ -10876,19 +11007,19 @@
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
@@ -10896,10 +11027,10 @@
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>89</v>
@@ -10910,10 +11041,10 @@
     </row>
     <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>90</v>
@@ -10924,30 +11055,36 @@
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>313</v>
+        <v>579</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="E37" s="4" t="s">
+        <v>539</v>
+      </c>
       <c r="F37" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="F38" s="4" t="b">
         <v>0</v>
@@ -10955,39 +11092,39 @@
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>319</v>
+      <c r="E39" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="F39" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E40" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -10995,10 +11132,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
         <v>89</v>
@@ -11009,10 +11146,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s">
         <v>90</v>
@@ -11023,10 +11160,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C43" t="s">
         <v>86</v>
@@ -11046,7 +11183,7 @@
         <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -11068,10 +11205,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B46" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
@@ -11080,21 +11217,21 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I46" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B47" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -11103,18 +11240,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B48" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C48" t="s">
         <v>89</v>
@@ -11123,18 +11260,18 @@
         <v>1</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B49" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C49" t="s">
         <v>89</v>
@@ -11143,18 +11280,18 @@
         <v>1</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B50" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C50" t="s">
         <v>89</v>
@@ -11163,18 +11300,18 @@
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B51" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -11183,18 +11320,18 @@
         <v>1</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B52" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C52" t="s">
         <v>89</v>
@@ -11203,18 +11340,18 @@
         <v>1</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B53" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C53" t="s">
         <v>89</v>
@@ -11223,18 +11360,18 @@
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B54" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C54" t="s">
         <v>89</v>
@@ -11243,13 +11380,13 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H54" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I54" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -11262,7 +11399,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11329,7 +11466,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -11340,16 +11477,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s">
         <v>320</v>
       </c>
-      <c r="B4" t="s">
-        <v>329</v>
-      </c>
       <c r="C4" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -11357,10 +11494,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" t="s">
         <v>321</v>
-      </c>
-      <c r="B5" t="s">
-        <v>330</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -11371,10 +11508,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
         <v>322</v>
-      </c>
-      <c r="B6" t="s">
-        <v>331</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -11385,33 +11522,36 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -11419,87 +11559,102 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11513,7 +11668,7 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -11535,10 +11690,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C16" t="s">
         <v>89</v>
@@ -11547,13 +11702,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H16" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I16" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -11566,20 +11721,20 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11718,7 +11873,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-01nva/resources/outputs/templates/ccfgs_01nva_data_fixed.xlsx
+++ b/examples/oucru/oucru-01nva/resources/outputs/templates/ccfgs_01nva_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-01nva\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2781767-BCAC-44F7-8B35-30DA098618C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCADF8-D83A-40D0-8C46-352FE4CCCA8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26895" yWindow="945" windowWidth="23505" windowHeight="16470" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27195" yWindow="1080" windowWidth="23730" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="589">
   <si>
     <t>from_name</t>
   </si>
@@ -234,9 +234,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>mednb</t>
   </si>
   <si>
@@ -1776,9 +1773,6 @@
     <t>Antibiotic NA?</t>
   </si>
   <si>
-    <t>admission_diagnosis</t>
-  </si>
-  <si>
     <t>event_laboratory</t>
   </si>
   <si>
@@ -1819,6 +1813,12 @@
   </si>
   <si>
     <t>empty atm</t>
+  </si>
+  <si>
+    <t>diagnosis_admission</t>
+  </si>
+  <si>
+    <t>occupation</t>
   </si>
 </sst>
 </file>
@@ -2277,11 +2277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2331,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2342,10 +2342,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -2356,10 +2356,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2373,10 +2373,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
         <v>400</v>
       </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>401</v>
-      </c>
-      <c r="E9" t="s">
-        <v>402</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2469,13 +2469,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>588</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2486,16 +2486,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2503,13 +2503,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2537,16 +2537,16 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,10 +2574,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2588,16 +2588,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2628,16 +2628,16 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F20" s="4" t="b">
         <v>0</v>
@@ -2668,16 +2668,16 @@
         <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F21" s="4" t="b">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2731,16 +2731,16 @@
         <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F24" s="4" t="b">
         <v>0</v>
@@ -2751,16 +2751,16 @@
         <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F25" s="6" t="b">
         <v>0</v>
@@ -2771,22 +2771,22 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2794,16 +2794,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F28" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2837,16 +2837,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2857,16 +2857,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F30" s="4" t="b">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F31" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2900,16 +2900,16 @@
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F32" s="4" t="b">
         <v>0</v>
@@ -2920,16 +2920,16 @@
         <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F33" s="4" t="b">
         <v>0</v>
@@ -2940,16 +2940,16 @@
         <v>42</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F34" s="4" t="b">
         <v>0</v>
@@ -2960,22 +2960,22 @@
         <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F35" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2983,22 +2983,22 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3006,16 +3006,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -3057,19 +3057,19 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F40" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3077,19 +3077,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F41" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3097,19 +3097,19 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F42" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3117,16 +3117,16 @@
         <v>51</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3137,10 +3137,10 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -3162,13 +3162,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>23</v>
@@ -3177,7 +3177,7 @@
         <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3250,10 +3250,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3264,10 +3264,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3275,13 +3275,13 @@
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="4" t="b">
         <v>0</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3317,142 +3317,142 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>444</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>422</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3463,10 +3463,10 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -3488,25 +3488,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" t="s">
         <v>325</v>
       </c>
-      <c r="H16" t="s">
-        <v>326</v>
-      </c>
       <c r="I16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -3576,10 +3576,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3663,16 +3663,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3680,30 +3680,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>458</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3711,16 +3711,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3728,16 +3728,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -3745,16 +3745,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -3762,13 +3762,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -3864,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3875,10 +3875,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3889,10 +3889,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3900,13 +3900,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3914,16 +3914,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3931,13 +3931,13 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>1</v>
@@ -3945,13 +3945,13 @@
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7" t="b">
         <v>0</v>
@@ -3959,13 +3959,13 @@
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="7" t="b">
         <v>1</v>
@@ -3973,13 +3973,13 @@
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>0</v>
@@ -3987,25 +3987,25 @@
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4016,10 +4016,10 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -4041,48 +4041,48 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" t="s">
         <v>339</v>
       </c>
-      <c r="H13" t="s">
-        <v>340</v>
-      </c>
       <c r="I13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" t="s">
         <v>341</v>
       </c>
-      <c r="H14" t="s">
-        <v>342</v>
-      </c>
       <c r="I14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4132,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4143,10 +4143,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4157,10 +4157,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4168,16 +4168,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4185,13 +4185,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
@@ -4202,13 +4202,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -4225,10 +4225,10 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4242,13 +4242,13 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4310,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4321,10 +4321,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4335,10 +4335,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4346,16 +4346,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4363,13 +4363,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
@@ -4380,13 +4380,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -4403,10 +4403,10 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4420,13 +4420,13 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4439,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,7 +4489,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4500,10 +4500,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4525,13 +4525,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4545,10 +4545,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4562,10 +4562,10 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4601,33 +4601,30 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -4635,16 +4632,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4652,76 +4649,76 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -4729,13 +4726,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4743,139 +4740,139 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F23" s="5" t="b">
         <v>0</v>
@@ -4883,19 +4880,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -4903,19 +4900,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4923,62 +4920,62 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4986,13 +4983,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -5006,10 +5003,10 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -5023,7 +5020,7 @@
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -5031,25 +5028,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="s">
+        <v>359</v>
+      </c>
+      <c r="H32" t="s">
         <v>360</v>
       </c>
-      <c r="H32" t="s">
-        <v>361</v>
-      </c>
       <c r="I32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5113,13 +5110,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5133,10 +5130,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5147,10 +5144,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5158,16 +5155,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" t="s">
         <v>373</v>
       </c>
-      <c r="B5" t="s">
-        <v>374</v>
-      </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5175,16 +5172,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5192,13 +5189,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -5206,13 +5203,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5220,13 +5217,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -5234,13 +5231,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5248,22 +5245,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5274,10 +5271,10 @@
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5291,7 +5288,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -5299,48 +5296,48 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="s">
+        <v>338</v>
+      </c>
+      <c r="H14" t="s">
         <v>339</v>
       </c>
-      <c r="H14" t="s">
-        <v>340</v>
-      </c>
       <c r="I14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="s">
+        <v>340</v>
+      </c>
+      <c r="H15" t="s">
         <v>341</v>
       </c>
-      <c r="H15" t="s">
-        <v>342</v>
-      </c>
       <c r="I15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -5395,13 +5392,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5415,10 +5412,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5429,10 +5426,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5440,16 +5437,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" t="s">
         <v>375</v>
       </c>
-      <c r="B5" t="s">
-        <v>376</v>
-      </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5457,13 +5454,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -5474,13 +5471,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -5497,10 +5494,10 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5514,7 +5511,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -5581,13 +5578,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5601,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5615,10 +5612,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5626,16 +5623,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" t="s">
         <v>377</v>
       </c>
-      <c r="B5" t="s">
-        <v>378</v>
-      </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5643,13 +5640,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -5660,13 +5657,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -5683,10 +5680,10 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5700,7 +5697,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -5764,13 +5761,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5784,10 +5781,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5798,10 +5795,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5809,13 +5806,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s">
         <v>379</v>
       </c>
-      <c r="B5" t="s">
-        <v>380</v>
-      </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5823,13 +5820,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -5837,13 +5834,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5851,142 +5848,142 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>444</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5997,10 +5994,10 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -6014,7 +6011,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -6022,22 +6019,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6050,10 +6047,10 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6104,13 +6101,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>570</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6121,10 +6118,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6135,10 +6132,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6152,10 +6149,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6169,10 +6166,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6186,7 +6183,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6200,7 +6197,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6208,13 +6205,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -6222,13 +6219,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6236,13 +6233,13 @@
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>53</v>
@@ -6251,21 +6248,21 @@
         <v>0</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -6276,16 +6273,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -6296,16 +6293,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>409</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>410</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -6316,16 +6313,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
@@ -6336,16 +6333,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E15" t="s">
         <v>53</v>
@@ -6356,16 +6353,16 @@
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
@@ -6376,16 +6373,16 @@
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
@@ -6396,16 +6393,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
@@ -6416,16 +6413,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
@@ -6436,16 +6433,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -6456,16 +6453,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -6476,13 +6473,13 @@
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
@@ -6490,16 +6487,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6510,30 +6507,30 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="9" t="b">
         <v>1</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -6541,16 +6538,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6558,16 +6555,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6575,13 +6572,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6589,33 +6586,33 @@
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="5" t="b">
         <v>0</v>
@@ -6623,33 +6620,33 @@
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6657,13 +6654,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -6671,13 +6668,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>53</v>
@@ -6686,18 +6683,18 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
         <v>53</v>
@@ -6706,18 +6703,18 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
         <v>53</v>
@@ -6726,18 +6723,18 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
         <v>53</v>
@@ -6746,18 +6743,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
         <v>53</v>
@@ -6766,18 +6763,18 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
         <v>53</v>
@@ -6786,18 +6783,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="4" t="b">
         <v>1</v>
@@ -6805,13 +6802,13 @@
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" s="4" t="b">
         <v>0</v>
@@ -6819,13 +6816,13 @@
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4" t="b">
         <v>1</v>
@@ -6833,13 +6830,13 @@
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F43" s="4" t="b">
         <v>0</v>
@@ -6847,82 +6844,82 @@
     </row>
     <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F44" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F46" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -6933,10 +6930,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6950,7 +6947,7 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -6958,13 +6955,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="4" t="b">
         <v>1</v>
@@ -6972,13 +6969,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" s="4" t="b">
         <v>1</v>
@@ -6986,114 +6983,114 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H52" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
         <v>96</v>
       </c>
-      <c r="H53" t="s">
-        <v>97</v>
-      </c>
       <c r="I53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="I54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B55" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7107,7 +7104,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7157,18 +7154,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7182,10 +7179,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7196,10 +7193,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7207,130 +7204,130 @@
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7338,82 +7335,82 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7424,10 +7421,10 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7441,7 +7438,7 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -7449,22 +7446,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="s">
+        <v>382</v>
+      </c>
+      <c r="H18" t="s">
         <v>383</v>
-      </c>
-      <c r="H18" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -7477,7 +7474,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,7 +7524,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7538,10 +7535,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7552,10 +7549,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7569,10 +7566,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7586,10 +7583,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7603,7 +7600,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7617,7 +7614,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7625,56 +7622,56 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7682,36 +7679,36 @@
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="F11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7719,16 +7716,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7736,53 +7733,53 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" s="9" t="b">
         <v>0</v>
@@ -7796,10 +7793,10 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7813,7 +7810,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -7866,13 +7863,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7880,13 +7877,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7894,13 +7891,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7908,13 +7905,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7979,7 +7976,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7990,10 +7987,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -8004,10 +8001,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8021,10 +8018,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -8038,10 +8035,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -8055,7 +8052,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -8069,7 +8066,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -8077,13 +8074,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -8091,13 +8088,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -8105,179 +8102,179 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -8285,19 +8282,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8305,19 +8302,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -8325,19 +8322,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -8345,19 +8342,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -8365,19 +8362,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -8385,19 +8382,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -8405,19 +8402,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -8425,19 +8422,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -8445,16 +8442,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -8462,19 +8459,19 @@
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F28" s="4" t="b">
         <v>0</v>
@@ -8482,42 +8479,42 @@
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E29" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="E29" t="s">
-        <v>424</v>
-      </c>
-      <c r="F29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -8525,19 +8522,19 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -8545,19 +8542,19 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -8565,19 +8562,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -8585,19 +8582,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -8605,19 +8602,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -8625,19 +8622,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -8645,39 +8642,39 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -8685,39 +8682,39 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -8725,19 +8722,19 @@
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F41" s="5" t="b">
         <v>0</v>
@@ -8745,19 +8742,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -8765,159 +8762,159 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" t="s">
+        <v>423</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
         <v>444</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" t="s">
-        <v>424</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F50" s="5" t="b">
         <v>0</v>
@@ -8931,10 +8928,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -8948,7 +8945,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -8956,25 +8953,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="G53" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" t="s">
         <v>159</v>
       </c>
-      <c r="H53" t="s">
-        <v>160</v>
-      </c>
       <c r="I53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -8986,7 +8983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -9036,7 +9033,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9047,10 +9044,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -9061,10 +9058,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -9078,10 +9075,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -9095,10 +9092,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -9112,7 +9109,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -9126,7 +9123,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -9134,13 +9131,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
@@ -9149,18 +9146,18 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
@@ -9169,18 +9166,18 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
@@ -9189,18 +9186,18 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -9209,18 +9206,18 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -9229,18 +9226,18 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -9249,18 +9246,18 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
@@ -9269,18 +9266,18 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>53</v>
@@ -9289,21 +9286,21 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>53</v>
@@ -9314,16 +9311,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
@@ -9334,16 +9331,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9351,16 +9348,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
@@ -9371,16 +9368,16 @@
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>53</v>
@@ -9391,16 +9388,16 @@
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>53</v>
@@ -9409,21 +9406,21 @@
         <v>0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
@@ -9434,16 +9431,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E23" t="s">
         <v>53</v>
@@ -9454,16 +9451,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
@@ -9474,16 +9471,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -9494,16 +9491,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E26" t="s">
         <v>53</v>
@@ -9514,16 +9511,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E27" t="s">
         <v>53</v>
@@ -9534,13 +9531,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
         <v>53</v>
@@ -9551,13 +9548,13 @@
     </row>
     <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="9" t="b">
         <v>0</v>
@@ -9565,13 +9562,13 @@
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>53</v>
@@ -9582,13 +9579,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
         <v>53</v>
@@ -9597,18 +9594,18 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="9" t="b">
         <v>0</v>
@@ -9616,13 +9613,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>53</v>
@@ -9631,18 +9628,18 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
         <v>53</v>
@@ -9651,18 +9648,18 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F35" s="9" t="b">
         <v>0</v>
@@ -9670,13 +9667,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
         <v>53</v>
@@ -9685,18 +9682,18 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="9" t="b">
         <v>0</v>
@@ -9704,13 +9701,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
         <v>53</v>
@@ -9719,18 +9716,18 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="9" t="b">
         <v>0</v>
@@ -9738,13 +9735,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
         <v>53</v>
@@ -9753,18 +9750,18 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41" s="9" t="b">
         <v>0</v>
@@ -9772,13 +9769,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
         <v>53</v>
@@ -9787,18 +9784,18 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F43" s="9" t="b">
         <v>0</v>
@@ -9806,13 +9803,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
         <v>53</v>
@@ -9821,18 +9818,18 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F45" s="9" t="b">
         <v>0</v>
@@ -9840,13 +9837,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
         <v>53</v>
@@ -9855,18 +9852,18 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F47" s="9" t="b">
         <v>0</v>
@@ -9880,10 +9877,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -9897,13 +9894,13 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -9972,10 +9969,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -9989,7 +9986,7 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -10003,10 +10000,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -10020,10 +10017,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -10037,7 +10034,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -10051,7 +10048,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -10065,10 +10062,10 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -10082,7 +10079,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -10147,7 +10144,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10158,10 +10155,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -10172,10 +10169,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -10183,13 +10180,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -10197,13 +10194,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -10211,13 +10208,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -10225,142 +10222,142 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="F9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -10371,10 +10368,10 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -10388,7 +10385,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -10396,22 +10393,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" t="s">
         <v>245</v>
-      </c>
-      <c r="H16" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -10473,7 +10470,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10484,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -10498,10 +10495,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -10515,10 +10512,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -10532,10 +10529,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -10549,7 +10546,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -10563,7 +10560,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -10571,19 +10568,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -10591,13 +10588,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -10605,13 +10602,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -10619,139 +10616,139 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -10759,19 +10756,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -10779,16 +10776,16 @@
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
         <v>532</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" t="s">
-        <v>533</v>
       </c>
       <c r="F19" s="7" t="b">
         <v>0</v>
@@ -10796,13 +10793,13 @@
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="b">
         <v>1</v>
@@ -10810,13 +10807,13 @@
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="b">
         <v>0</v>
@@ -10824,13 +10821,13 @@
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="b">
         <v>1</v>
@@ -10838,13 +10835,13 @@
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="b">
         <v>0</v>
@@ -10852,16 +10849,16 @@
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F24" s="7" t="b">
         <v>0</v>
@@ -10869,13 +10866,13 @@
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="b">
         <v>1</v>
@@ -10883,13 +10880,13 @@
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="7" t="b">
         <v>0</v>
@@ -10897,16 +10894,16 @@
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27" s="7" t="b">
         <v>0</v>
@@ -10914,16 +10911,16 @@
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F28" s="7" t="b">
         <v>0</v>
@@ -10931,16 +10928,16 @@
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F29" s="7" t="b">
         <v>0</v>
@@ -10948,13 +10945,13 @@
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="b">
         <v>1</v>
@@ -10962,13 +10959,13 @@
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="7" t="b">
         <v>0</v>
@@ -10976,16 +10973,16 @@
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F32" s="7" t="b">
         <v>0</v>
@@ -10993,13 +10990,13 @@
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>0</v>
@@ -11007,19 +11004,19 @@
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
@@ -11027,13 +11024,13 @@
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="4" t="b">
         <v>1</v>
@@ -11041,13 +11038,13 @@
     </row>
     <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="4" t="b">
         <v>0</v>
@@ -11055,16 +11052,16 @@
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F37" s="4" t="b">
         <v>0</v>
@@ -11072,19 +11069,19 @@
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F38" s="4" t="b">
         <v>0</v>
@@ -11092,39 +11089,39 @@
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F39" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -11132,13 +11129,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -11146,13 +11143,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -11160,13 +11157,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -11180,10 +11177,10 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -11197,7 +11194,7 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -11205,188 +11202,188 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
       <c r="G46" t="s">
+        <v>253</v>
+      </c>
+      <c r="H46" t="s">
         <v>254</v>
       </c>
-      <c r="H46" t="s">
-        <v>255</v>
-      </c>
       <c r="I46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
       </c>
       <c r="G54" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54" t="s">
         <v>286</v>
       </c>
-      <c r="H54" t="s">
-        <v>287</v>
-      </c>
       <c r="I54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -11452,10 +11449,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -11466,10 +11463,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -11477,16 +11474,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -11494,13 +11491,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -11508,13 +11505,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -11522,36 +11519,36 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
         <v>251</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>252</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -11559,102 +11556,102 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11665,10 +11662,10 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -11682,7 +11679,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -11690,25 +11687,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H16" t="s">
         <v>312</v>
       </c>
-      <c r="H16" t="s">
-        <v>313</v>
-      </c>
       <c r="I16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -11777,10 +11774,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -11794,7 +11791,7 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -11808,10 +11805,10 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -11825,10 +11822,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -11842,7 +11839,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -11856,7 +11853,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -11870,10 +11867,10 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -11887,7 +11884,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>

--- a/examples/oucru/oucru-01nva/resources/outputs/templates/ccfgs_01nva_data_fixed.xlsx
+++ b/examples/oucru/oucru-01nva/resources/outputs/templates/ccfgs_01nva_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-01nva\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCADF8-D83A-40D0-8C46-352FE4CCCA8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D0D37F-CAD1-45AB-9EED-4B3C1BAF4AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27195" yWindow="1080" windowWidth="23730" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28455" yWindow="3195" windowWidth="47250" windowHeight="9900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM" sheetId="1" r:id="rId1"/>
@@ -1788,9 +1788,6 @@
     <t>conscious_description</t>
   </si>
   <si>
-    <t>ventilation</t>
-  </si>
-  <si>
     <t>{3: 3}</t>
   </si>
   <si>
@@ -1819,6 +1816,9 @@
   </si>
   <si>
     <t>occupation</t>
+  </si>
+  <si>
+    <t>ventilation_type</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2376,7 +2376,7 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C10" t="s">
         <v>85</v>
@@ -4438,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,7 +4883,7 @@
         <v>263</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="C24" t="s">
         <v>84</v>
@@ -6152,7 +6152,7 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6169,7 +6169,7 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>86</v>
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -6904,7 +6904,7 @@
         <v>133</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>84</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C50" t="s">
         <v>88</v>
@@ -6969,10 +6969,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C51" t="s">
         <v>88</v>
@@ -6995,10 +6995,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
+        <v>581</v>
+      </c>
+      <c r="H52" t="s">
         <v>582</v>
-      </c>
-      <c r="H52" t="s">
-        <v>583</v>
       </c>
       <c r="I52" t="s">
         <v>402</v>
@@ -7087,7 +7087,7 @@
         <v>571</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L56" t="s">
         <v>401</v>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10420,8 +10420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
